--- a/processed_files/INVOICE - 2023-07-16 - 2023-07-31.xlsx
+++ b/processed_files/INVOICE - 2023-07-16 - 2023-07-31.xlsx
@@ -830,7 +830,7 @@
         </is>
       </c>
       <c r="C8" s="26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8" s="26" t="n">
         <v>2023</v>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="C40" s="61" t="inlineStr">
         <is>
-          <t>08.10.23</t>
+          <t>08.11.23</t>
         </is>
       </c>
       <c r="D40" s="58" t="n"/>
